--- a/biology/Médecine/Nomogramme_de_Fagan/Nomogramme_de_Fagan.xlsx
+++ b/biology/Médecine/Nomogramme_de_Fagan/Nomogramme_de_Fagan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Prévalence en %
@@ -488,7 +500,7 @@
 Probabilité a posteriori en %
  Nomogramme de Fagan
 En médecine fondée sur les faits, le nomogramme de Fagan est un outil  graphique permettant de trouver, connaissant les rapports de vraisemblance d'un test médical et le taux de prévalence d'une maladie, la probabilité pour un patient d'être atteint par la maladie connaissant le résultat de son test.
-Ce monogramme a été conceptualisé par TJ. Fagan en 1975[1].
+Ce monogramme a été conceptualisé par TJ. Fagan en 1975.
 </t>
         </is>
       </c>
@@ -517,7 +529,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet abaque est constitué de trois échelles graduées équidistantes, Sur l'échelle de gauche se trouve le  taux de prévalence ou probabilité a priori (variant de 0,1 % à 99,9 %), sur l'échelle centrale se trouve le rapport de vraisemblance (variant de 10-3 à 1 pour le RV- et de 1 à 1000 pour le RV+), sur l'échelle de droite se lit la probabilité a posteriori d'être malade ou valeur prédictive du test (variant de 99,9 % à 0,1 %).
 </t>
@@ -548,7 +562,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Prévalence en %
@@ -556,8 +572,8 @@
 Probabilité a posteriori en %
  Nomogramme de Fagan avec lecture en rouge our un test positif et en vert pour un test négatif
 On suppose que le praticien connait ou a estimé le taux de prévalence de la maladie sujette de son investigation et qu'il connait ou a calculé les rapports de vraisemblance positif et négatif pour le test qu'il utilise.
-Face a un résultat positif, il trace une droite passant par le taux de prévalence et le rapport de vraisemblance positif RV+, cette droite rencontre la troisième échelle en un point qui lui fournit la probabilité pour son patient d'être atteint de la maladie sachant que son test est positif[2].
-Face a un résultat négatif, il trace une droite passant par le taux de prévalence et le rapport vraisemblance négatif RV-, cette droite rencontre la troisième échelle en un point qui lui fournit la probabilité pour son patient d'être atteint de la maladie sachant que son test est négatif[2].
+Face a un résultat positif, il trace une droite passant par le taux de prévalence et le rapport de vraisemblance positif RV+, cette droite rencontre la troisième échelle en un point qui lui fournit la probabilité pour son patient d'être atteint de la maladie sachant que son test est positif.
+Face a un résultat négatif, il trace une droite passant par le taux de prévalence et le rapport vraisemblance négatif RV-, cette droite rencontre la troisième échelle en un point qui lui fournit la probabilité pour son patient d'être atteint de la maladie sachant que son test est négatif.
 Dans le graphique ci-contre le taux de prévalence a été estimé à 5 %, le RV+ vaut 50 et le RV- est de 0,1.
 Pour un malade dont le test est positif, le praticien trace la droite rouge qui rencontre la troisième échelle à 72. Il peut donc estimer la probabilité pour son patient d'être malade de 72 %
 Pour un malade dont le test est négatif, il trace la droite verte qui rencontre la troisième échelle à 0,5. La probabilité pour son patient d'être malade n'est alors que de 0,5 % soit 5 chances sur 1000.</t>
@@ -588,7 +604,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La construction de ce nomogramme s'appuie sur le rôle des rapports de vraisemblance dans la modification des cotes d'être malade (rapport entre les chances d'être malade et les chances d'être sain). Il s'inspire du principe du nomogramme d'Ocagne
 Si on appelle 
@@ -867,9 +885,11 @@
           <t>Autre outil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2011, pour pallier les quelques inconvénients de ce nomogramme — qui demande de calculer les rapports de vraisemblance et qui n'est pas utilisable pour les valeurs extrêmes de ce rapport —  un groupe de chercheurs a proposé un autre outil : le nomogramme du théorème de Bayes qui utilise directement la sensibilité et la spécificité du test[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, pour pallier les quelques inconvénients de ce nomogramme — qui demande de calculer les rapports de vraisemblance et qui n'est pas utilisable pour les valeurs extrêmes de ce rapport —  un groupe de chercheurs a proposé un autre outil : le nomogramme du théorème de Bayes qui utilise directement la sensibilité et la spécificité du test.
 </t>
         </is>
       </c>
